--- a/2023.02 CSS3501_4 Text Analysis in Python/results/ts.xlsx
+++ b/2023.02 CSS3501_4 Text Analysis in Python/results/ts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>reform</t>
+          <t>law</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -475,11 +475,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>reform</t>
+          <t>law</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -491,11 +491,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>reform</t>
+          <t>law</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -507,11 +507,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>reform</t>
+          <t>law</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -523,11 +523,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>reform</t>
+          <t>law</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -539,11 +539,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>reform</t>
+          <t>law</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -555,11 +555,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>reform</t>
+          <t>law</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -571,7 +571,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>reform</t>
+          <t>law</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -587,11 +587,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>reform</t>
+          <t>law</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -603,11 +603,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>reform</t>
+          <t>law</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -619,7 +619,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>nsc</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -635,11 +635,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>nsc</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -651,11 +651,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>nsc</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -667,11 +667,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>nsc</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -683,11 +683,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>nsc</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -699,11 +699,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>nsc</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -715,11 +715,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>nsc</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -731,7 +731,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>nsc</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -747,11 +747,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>nsc</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -763,11 +763,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>nsc</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -779,7 +779,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>anti-corruption</t>
+          <t>government</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -795,11 +795,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>anti-corruption</t>
+          <t>government</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -811,11 +811,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>anti-corruption</t>
+          <t>government</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -827,11 +827,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>anti-corruption</t>
+          <t>government</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -843,11 +843,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>anti-corruption</t>
+          <t>government</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -859,11 +859,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>anti-corruption</t>
+          <t>government</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -875,11 +875,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>anti-corruption</t>
+          <t>government</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -891,7 +891,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>anti-corruption</t>
+          <t>government</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -907,11 +907,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>anti-corruption</t>
+          <t>government</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -923,11 +923,171 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>anti-corruption</t>
+          <t>government</t>
         </is>
       </c>
       <c r="D31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>prosecutor</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>prosecutor</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>prosecutor</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>prosecutor</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>prosecutor</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>prosecutor</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>prosecutor</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>prosecutor</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>prosecutor</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>prosecutor</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
